--- a/Code/Results/Cases/Case_5_227/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_227/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.596101234264495</v>
+        <v>1.136730802768966</v>
       </c>
       <c r="C2">
-        <v>0.2731913093818719</v>
+        <v>0.1710915350730318</v>
       </c>
       <c r="D2">
-        <v>0.05397128416310437</v>
+        <v>0.05164015962787971</v>
       </c>
       <c r="E2">
-        <v>0.1192202541705072</v>
+        <v>0.1237518460948799</v>
       </c>
       <c r="F2">
-        <v>2.394210455994426</v>
+        <v>3.29784889486362</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2179798651267646</v>
+        <v>0.2261291256545519</v>
       </c>
       <c r="K2">
-        <v>1.775100900681934</v>
+        <v>1.229727015956257</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.921849194604135</v>
+        <v>3.111090195120724</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.396107494784189</v>
+        <v>1.09089379475634</v>
       </c>
       <c r="C3">
-        <v>0.2372705606667012</v>
+        <v>0.1629003829944224</v>
       </c>
       <c r="D3">
-        <v>0.04676329803616142</v>
+        <v>0.05030122963908212</v>
       </c>
       <c r="E3">
-        <v>0.1055307986993235</v>
+        <v>0.1211336060323056</v>
       </c>
       <c r="F3">
-        <v>2.244529043781355</v>
+        <v>3.273361124162491</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1954247895649033</v>
+        <v>0.221685578417059</v>
       </c>
       <c r="K3">
-        <v>1.550021193820953</v>
+        <v>1.178190574632794</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.929812606030964</v>
+        <v>3.11691075222646</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.275445423030106</v>
+        <v>1.063452048856959</v>
       </c>
       <c r="C4">
-        <v>0.2156049737933614</v>
+        <v>0.1579826333690448</v>
       </c>
       <c r="D4">
-        <v>0.04237750465319579</v>
+        <v>0.04951307680558159</v>
       </c>
       <c r="E4">
-        <v>0.09729636655088569</v>
+        <v>0.1195983299882002</v>
       </c>
       <c r="F4">
-        <v>2.156474967621776</v>
+        <v>3.259770387011045</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.181932479502585</v>
+        <v>0.2190838162326401</v>
       </c>
       <c r="K4">
-        <v>1.414230699656571</v>
+        <v>1.147316752513689</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.93676258870218</v>
+        <v>3.121222168917299</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.226751635330714</v>
+        <v>1.052445612452317</v>
       </c>
       <c r="C5">
-        <v>0.2068621513681563</v>
+        <v>0.1560065759215234</v>
       </c>
       <c r="D5">
-        <v>0.04059899625944752</v>
+        <v>0.04920046178716575</v>
       </c>
       <c r="E5">
-        <v>0.0939794787421917</v>
+        <v>0.1189908644581692</v>
       </c>
       <c r="F5">
-        <v>2.121486554972222</v>
+        <v>3.254594835344449</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1765153784392339</v>
+        <v>0.2180553356912256</v>
       </c>
       <c r="K5">
-        <v>1.359431822920044</v>
+        <v>1.134928550289231</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.940086480103091</v>
+        <v>3.123164253034972</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.218693210636957</v>
+        <v>1.050628641023849</v>
       </c>
       <c r="C6">
-        <v>0.2054152788676902</v>
+        <v>0.1556801389632767</v>
       </c>
       <c r="D6">
-        <v>0.04030416770537926</v>
+        <v>0.04914907027813342</v>
       </c>
       <c r="E6">
-        <v>0.09343093089556831</v>
+        <v>0.1188910923313884</v>
       </c>
       <c r="F6">
-        <v>2.115728710368046</v>
+        <v>3.253757334788133</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1756205347360336</v>
+        <v>0.2178864732844019</v>
       </c>
       <c r="K6">
-        <v>1.350363014626765</v>
+        <v>1.132883151052198</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.940667374068639</v>
+        <v>3.123497907706607</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.274786866215095</v>
+        <v>1.063302898799009</v>
       </c>
       <c r="C7">
-        <v>0.2154867316482409</v>
+        <v>0.1579558704798245</v>
       </c>
       <c r="D7">
-        <v>0.04235348534272276</v>
+        <v>0.04950882606134144</v>
       </c>
       <c r="E7">
-        <v>0.09725148253259164</v>
+        <v>0.1195900639395333</v>
       </c>
       <c r="F7">
-        <v>2.155999574377859</v>
+        <v>3.259699119536265</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.181859104948991</v>
+        <v>0.2190698172905243</v>
       </c>
       <c r="K7">
-        <v>1.413489576654996</v>
+        <v>1.147148899472484</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.936805458351671</v>
+        <v>3.121247611338845</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.526662821644749</v>
+        <v>1.120780216510809</v>
       </c>
       <c r="C8">
-        <v>0.2607174100095335</v>
+        <v>0.1682439829778559</v>
       </c>
       <c r="D8">
-        <v>0.05147686329411272</v>
+        <v>0.05117146351103941</v>
       </c>
       <c r="E8">
-        <v>0.1144619725509735</v>
+        <v>0.1228340523967688</v>
       </c>
       <c r="F8">
-        <v>2.341754724325725</v>
+        <v>3.289105292169097</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2101235131823387</v>
+        <v>0.2245706690116833</v>
       </c>
       <c r="K8">
-        <v>1.696950137896835</v>
+        <v>1.21179720496869</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.924150818394821</v>
+        <v>3.112943843857693</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.040494913621785</v>
+        <v>1.239088032939776</v>
       </c>
       <c r="C9">
-        <v>0.3531028880767337</v>
+        <v>0.1893111294020287</v>
       </c>
       <c r="D9">
-        <v>0.06974961284418413</v>
+        <v>0.05470047065605144</v>
       </c>
       <c r="E9">
-        <v>0.1497797923887063</v>
+        <v>0.1297707430806412</v>
       </c>
       <c r="F9">
-        <v>2.740234093350779</v>
+        <v>3.358265995471697</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2688023683855363</v>
+        <v>0.2363665225199156</v>
       </c>
       <c r="K9">
-        <v>2.275353075355554</v>
+        <v>1.344708142913873</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.916985714271988</v>
+        <v>3.102528086686831</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.434713801934663</v>
+        <v>1.329461333775271</v>
       </c>
       <c r="C10">
-        <v>0.4241480279352743</v>
+        <v>0.2053436850826245</v>
       </c>
       <c r="D10">
-        <v>0.08350773695356395</v>
+        <v>0.05745622924126792</v>
       </c>
       <c r="E10">
-        <v>0.1770100501463858</v>
+        <v>0.1352203846029738</v>
       </c>
       <c r="F10">
-        <v>3.059490996400967</v>
+        <v>3.416139065275388</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3145488884305934</v>
+        <v>0.2456550031435825</v>
       </c>
       <c r="K10">
-        <v>2.71932577212749</v>
+        <v>1.446149712523265</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.924486019382314</v>
+        <v>3.098476087102242</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.618832992738703</v>
+        <v>1.371333998530304</v>
       </c>
       <c r="C11">
-        <v>0.457390128572456</v>
+        <v>0.2127601558477181</v>
       </c>
       <c r="D11">
-        <v>0.08986415097497513</v>
+        <v>0.05874516512757566</v>
       </c>
       <c r="E11">
-        <v>0.1897583298864802</v>
+        <v>0.1377768884714996</v>
       </c>
       <c r="F11">
-        <v>3.21190357222153</v>
+        <v>3.444012401755174</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3360969499768487</v>
+        <v>0.2500172867448072</v>
       </c>
       <c r="K11">
-        <v>2.926762125733234</v>
+        <v>1.493133486145524</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.931177413074437</v>
+        <v>3.097419738053688</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.689350534328753</v>
+        <v>1.387300156466154</v>
       </c>
       <c r="C12">
-        <v>0.4701329050227798</v>
+        <v>0.2155864551942841</v>
       </c>
       <c r="D12">
-        <v>0.09228755329810667</v>
+        <v>0.05923831415145742</v>
       </c>
       <c r="E12">
-        <v>0.1946453990849903</v>
+        <v>0.1387561407712283</v>
       </c>
       <c r="F12">
-        <v>3.270784863855425</v>
+        <v>3.454790530479556</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3443782271003926</v>
+        <v>0.251688966708997</v>
       </c>
       <c r="K12">
-        <v>3.006224769922255</v>
+        <v>1.511046184117959</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.934231134124829</v>
+        <v>3.097133297988066</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.674126096003477</v>
+        <v>1.383856664859763</v>
       </c>
       <c r="C13">
-        <v>0.4673812614487076</v>
+        <v>0.2149769654074021</v>
       </c>
       <c r="D13">
-        <v>0.0917648629026786</v>
+        <v>0.059131881136949</v>
       </c>
       <c r="E13">
-        <v>0.1935901006545038</v>
+        <v>0.1385447445302432</v>
       </c>
       <c r="F13">
-        <v>3.258049578828462</v>
+        <v>3.452459333764779</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3425890378467216</v>
+        <v>0.2513280594321401</v>
       </c>
       <c r="K13">
-        <v>2.989068417090124</v>
+        <v>1.507182975654075</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.933549511159526</v>
+        <v>3.097189929922166</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.624617910327629</v>
+        <v>1.372645339287601</v>
       </c>
       <c r="C14">
-        <v>0.4584352486835712</v>
+        <v>0.2129923188492171</v>
       </c>
       <c r="D14">
-        <v>0.0900631836232435</v>
+        <v>0.05878563557578786</v>
       </c>
       <c r="E14">
-        <v>0.1901591511818523</v>
+        <v>0.1378572283441244</v>
       </c>
       <c r="F14">
-        <v>3.216723585238924</v>
+        <v>3.444894649531932</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3367757260780735</v>
+        <v>0.2501544199584487</v>
       </c>
       <c r="K14">
-        <v>2.933280544333996</v>
+        <v>1.494604747223889</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.931417929538171</v>
+        <v>3.097393893805787</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.594399718744796</v>
+        <v>1.365792401471083</v>
       </c>
       <c r="C15">
-        <v>0.4529764018659819</v>
+        <v>0.2117789930781271</v>
       </c>
       <c r="D15">
-        <v>0.08902306006157801</v>
+        <v>0.05857420806258062</v>
       </c>
       <c r="E15">
-        <v>0.1880655954060018</v>
+        <v>0.1374375589100794</v>
       </c>
       <c r="F15">
-        <v>3.191566282336368</v>
+        <v>3.440290137495765</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.333231214525668</v>
+        <v>0.2494381102726919</v>
       </c>
       <c r="K15">
-        <v>2.89923143336523</v>
+        <v>1.48691598803353</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.930181501147814</v>
+        <v>3.097533631061509</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.422786400896086</v>
+        <v>1.326740211896038</v>
       </c>
       <c r="C16">
-        <v>0.4219959752827549</v>
+        <v>0.204861491008046</v>
       </c>
       <c r="D16">
-        <v>0.08309448934577546</v>
+        <v>0.05737270314558174</v>
       </c>
       <c r="E16">
-        <v>0.176184820612761</v>
+        <v>0.135054871342021</v>
       </c>
       <c r="F16">
-        <v>3.049686031836984</v>
+        <v>3.414348658304931</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3131567945377753</v>
+        <v>0.2453726802944232</v>
       </c>
       <c r="K16">
-        <v>2.705889712763252</v>
+        <v>1.443096110118546</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.924118710459396</v>
+        <v>3.098560992498633</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.318805843382677</v>
+        <v>1.302978251960553</v>
       </c>
       <c r="C17">
-        <v>0.4032417870923837</v>
+        <v>0.2006494685102496</v>
       </c>
       <c r="D17">
-        <v>0.07948410978831788</v>
+        <v>0.05664465043907541</v>
       </c>
       <c r="E17">
-        <v>0.1689940129126626</v>
+        <v>0.133613019896579</v>
       </c>
       <c r="F17">
-        <v>2.964576525018373</v>
+        <v>3.398831015317938</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3010411627082306</v>
+        <v>0.2429137999594104</v>
       </c>
       <c r="K17">
-        <v>2.588766147262533</v>
+        <v>1.416428911069204</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.921271942061551</v>
+        <v>3.099393091108695</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.259442464554411</v>
+        <v>1.289382642731937</v>
       </c>
       <c r="C18">
-        <v>0.3925403233148756</v>
+        <v>0.1982384110322926</v>
       </c>
       <c r="D18">
-        <v>0.07741656590525992</v>
+        <v>0.05622922031599842</v>
       </c>
       <c r="E18">
-        <v>0.1648915333295875</v>
+        <v>0.1327909920585313</v>
       </c>
       <c r="F18">
-        <v>2.916290872812368</v>
+        <v>3.390051206649815</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2941409911811235</v>
+        <v>0.2415123978559421</v>
       </c>
       <c r="K18">
-        <v>2.521906494798174</v>
+        <v>1.401169439868852</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.919940035155378</v>
+        <v>3.099945736105866</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.239416139718628</v>
+        <v>1.284791695547995</v>
       </c>
       <c r="C19">
-        <v>0.3889310402263675</v>
+        <v>0.1974240544753627</v>
       </c>
       <c r="D19">
-        <v>0.07671801929480893</v>
+        <v>0.05608913486275924</v>
       </c>
       <c r="E19">
-        <v>0.1635080356572729</v>
+        <v>0.1325139183620152</v>
       </c>
       <c r="F19">
-        <v>2.900052932896898</v>
+        <v>3.387103487831581</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2918160214068024</v>
+        <v>0.241040116737878</v>
       </c>
       <c r="K19">
-        <v>2.499352434903869</v>
+        <v>1.396016362474057</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.919540160065793</v>
+        <v>3.100145556679706</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.329828113364158</v>
+        <v>1.305500335665215</v>
       </c>
       <c r="C20">
-        <v>0.4052292079817903</v>
+        <v>0.2010966454101322</v>
       </c>
       <c r="D20">
-        <v>0.0798674881977206</v>
+        <v>0.05672180877655109</v>
       </c>
       <c r="E20">
-        <v>0.1697559686431873</v>
+        <v>0.1337657530927814</v>
       </c>
       <c r="F20">
-        <v>2.973566618625625</v>
+        <v>3.400467828184929</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3023237051930323</v>
+        <v>0.2431742181984617</v>
       </c>
       <c r="K20">
-        <v>2.601180851094114</v>
+        <v>1.419259521004562</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.921543037697077</v>
+        <v>3.09929684657331</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.639137156567017</v>
+        <v>1.375935391781582</v>
       </c>
       <c r="C21">
-        <v>0.4610585226242847</v>
+        <v>0.2135747723570205</v>
       </c>
       <c r="D21">
-        <v>0.09056254425938448</v>
+        <v>0.05888719922645436</v>
       </c>
       <c r="E21">
-        <v>0.1911652221545168</v>
+        <v>0.1380588654390493</v>
       </c>
       <c r="F21">
-        <v>3.228829248206495</v>
+        <v>3.44711052007986</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3384798076638447</v>
+        <v>0.2504986088255379</v>
       </c>
       <c r="K21">
-        <v>2.949641008609063</v>
+        <v>1.498295990619937</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.932029505627767</v>
+        <v>3.097330898880173</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.845984802318071</v>
+        <v>1.422609481292113</v>
       </c>
       <c r="C22">
-        <v>0.498460153155122</v>
+        <v>0.2218340132270384</v>
       </c>
       <c r="D22">
-        <v>0.09764903607107556</v>
+        <v>0.06033187264347362</v>
       </c>
       <c r="E22">
-        <v>0.2055088406042245</v>
+        <v>0.1409297223354784</v>
       </c>
       <c r="F22">
-        <v>3.402527639274865</v>
+        <v>3.478894956549112</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3628265581417054</v>
+        <v>0.2554008451648997</v>
       </c>
       <c r="K22">
-        <v>3.182758296860356</v>
+        <v>1.550656211369471</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.941939678297373</v>
+        <v>3.096708246632772</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.735117886534738</v>
+        <v>1.397639881090868</v>
       </c>
       <c r="C23">
-        <v>0.4784066166693606</v>
+        <v>0.2174163356423264</v>
       </c>
       <c r="D23">
-        <v>0.09385716825936186</v>
+        <v>0.05955813464312598</v>
       </c>
       <c r="E23">
-        <v>0.1978184648706005</v>
+        <v>0.1393915305878366</v>
       </c>
       <c r="F23">
-        <v>3.30914478416787</v>
+        <v>3.461811750428012</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3497610952208703</v>
+        <v>0.2527738468377692</v>
       </c>
       <c r="K23">
-        <v>3.057802163633028</v>
+        <v>1.522645860179352</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.93635327449941</v>
+        <v>3.096979836233729</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.324843655972757</v>
+        <v>1.304359897761174</v>
       </c>
       <c r="C24">
-        <v>0.4043304456689327</v>
+        <v>0.2008944440688936</v>
       </c>
       <c r="D24">
-        <v>0.07969413772477196</v>
+        <v>0.05668691571881368</v>
       </c>
       <c r="E24">
-        <v>0.1694113905614145</v>
+        <v>0.1336966808883773</v>
       </c>
       <c r="F24">
-        <v>2.969500198356485</v>
+        <v>3.399727384403747</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3017436655866561</v>
+        <v>0.2430564449922343</v>
       </c>
       <c r="K24">
-        <v>2.595566689305514</v>
+        <v>1.417979578471488</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.921419529746373</v>
+        <v>3.099340127430366</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.898913999744082</v>
+        <v>1.206479383211473</v>
       </c>
       <c r="C25">
-        <v>0.3276259672066999</v>
+        <v>0.1835153039756392</v>
       </c>
       <c r="D25">
-        <v>0.06475568843900703</v>
+        <v>0.0537171053297314</v>
       </c>
       <c r="E25">
-        <v>0.1400257571229986</v>
+        <v>0.1278323382274955</v>
       </c>
       <c r="F25">
-        <v>2.628224113962546</v>
+        <v>3.338320128606341</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2525165721300482</v>
+        <v>0.2330667112360203</v>
       </c>
       <c r="K25">
-        <v>2.115953545719151</v>
+        <v>1.308090071280191</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.916840030944542</v>
+        <v>3.104715246303087</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_227/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_227/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.136730802768966</v>
+        <v>1.59610123426458</v>
       </c>
       <c r="C2">
-        <v>0.1710915350730318</v>
+        <v>0.273191309382014</v>
       </c>
       <c r="D2">
-        <v>0.05164015962787971</v>
+        <v>0.05397128416309016</v>
       </c>
       <c r="E2">
-        <v>0.1237518460948799</v>
+        <v>0.1192202541705036</v>
       </c>
       <c r="F2">
-        <v>3.29784889486362</v>
+        <v>2.394210455994426</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2261291256545519</v>
+        <v>0.2179798651267078</v>
       </c>
       <c r="K2">
-        <v>1.229727015956257</v>
+        <v>1.775100900681906</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.111090195120724</v>
+        <v>1.921849194604135</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.09089379475634</v>
+        <v>1.39610749478436</v>
       </c>
       <c r="C3">
-        <v>0.1629003829944224</v>
+        <v>0.2372705606666301</v>
       </c>
       <c r="D3">
-        <v>0.05030122963908212</v>
+        <v>0.0467632980362751</v>
       </c>
       <c r="E3">
-        <v>0.1211336060323056</v>
+        <v>0.1055307986992879</v>
       </c>
       <c r="F3">
-        <v>3.273361124162491</v>
+        <v>2.24452904378137</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.221685578417059</v>
+        <v>0.1954247895649104</v>
       </c>
       <c r="K3">
-        <v>1.178190574632794</v>
+        <v>1.550021193820925</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.11691075222646</v>
+        <v>1.929812606030978</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.063452048856959</v>
+        <v>1.275445423030078</v>
       </c>
       <c r="C4">
-        <v>0.1579826333690448</v>
+        <v>0.2156049737935462</v>
       </c>
       <c r="D4">
-        <v>0.04951307680558159</v>
+        <v>0.04237750465289025</v>
       </c>
       <c r="E4">
-        <v>0.1195983299882002</v>
+        <v>0.09729636655089635</v>
       </c>
       <c r="F4">
-        <v>3.259770387011045</v>
+        <v>2.156474967621776</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2190838162326401</v>
+        <v>0.1819324795025565</v>
       </c>
       <c r="K4">
-        <v>1.147316752513689</v>
+        <v>1.414230699656599</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.121222168917299</v>
+        <v>1.936762588702123</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.052445612452317</v>
+        <v>1.226751635330743</v>
       </c>
       <c r="C5">
-        <v>0.1560065759215234</v>
+        <v>0.20686215136827</v>
       </c>
       <c r="D5">
-        <v>0.04920046178716575</v>
+        <v>0.04059899625946173</v>
       </c>
       <c r="E5">
-        <v>0.1189908644581692</v>
+        <v>0.0939794787421917</v>
       </c>
       <c r="F5">
-        <v>3.254594835344449</v>
+        <v>2.121486554972208</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2180553356912256</v>
+        <v>0.1765153784392979</v>
       </c>
       <c r="K5">
-        <v>1.134928550289231</v>
+        <v>1.359431822920072</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.123164253034972</v>
+        <v>1.940086480103076</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.050628641023849</v>
+        <v>1.2186932106369</v>
       </c>
       <c r="C6">
-        <v>0.1556801389632767</v>
+        <v>0.2054152788678039</v>
       </c>
       <c r="D6">
-        <v>0.04914907027813342</v>
+        <v>0.04030416770525846</v>
       </c>
       <c r="E6">
-        <v>0.1188910923313884</v>
+        <v>0.09343093089556831</v>
       </c>
       <c r="F6">
-        <v>3.253757334788133</v>
+        <v>2.115728710368032</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2178864732844019</v>
+        <v>0.1756205347361544</v>
       </c>
       <c r="K6">
-        <v>1.132883151052198</v>
+        <v>1.350363014626595</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.123497907706607</v>
+        <v>1.940667374068639</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.063302898799009</v>
+        <v>1.27478686621518</v>
       </c>
       <c r="C7">
-        <v>0.1579558704798245</v>
+        <v>0.2154867316481273</v>
       </c>
       <c r="D7">
-        <v>0.04950882606134144</v>
+        <v>0.04235348534285066</v>
       </c>
       <c r="E7">
-        <v>0.1195900639395333</v>
+        <v>0.09725148253261651</v>
       </c>
       <c r="F7">
-        <v>3.259699119536265</v>
+        <v>2.155999574377873</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2190698172905243</v>
+        <v>0.181859104949055</v>
       </c>
       <c r="K7">
-        <v>1.147148899472484</v>
+        <v>1.413489576655024</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.121247611338845</v>
+        <v>1.936805458351685</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.120780216510809</v>
+        <v>1.526662821644663</v>
       </c>
       <c r="C8">
-        <v>0.1682439829778559</v>
+        <v>0.2607174100099314</v>
       </c>
       <c r="D8">
-        <v>0.05117146351103941</v>
+        <v>0.05147686329409851</v>
       </c>
       <c r="E8">
-        <v>0.1228340523967688</v>
+        <v>0.1144619725509557</v>
       </c>
       <c r="F8">
-        <v>3.289105292169097</v>
+        <v>2.341754724325725</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2245706690116833</v>
+        <v>0.2101235131823103</v>
       </c>
       <c r="K8">
-        <v>1.21179720496869</v>
+        <v>1.696950137896863</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.112943843857693</v>
+        <v>1.924150818394892</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.239088032939776</v>
+        <v>2.040494913621728</v>
       </c>
       <c r="C9">
-        <v>0.1893111294020287</v>
+        <v>0.3531028880767053</v>
       </c>
       <c r="D9">
-        <v>0.05470047065605144</v>
+        <v>0.06974961284417702</v>
       </c>
       <c r="E9">
-        <v>0.1297707430806412</v>
+        <v>0.1497797923887063</v>
       </c>
       <c r="F9">
-        <v>3.358265995471697</v>
+        <v>2.74023409335075</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2363665225199156</v>
+        <v>0.2688023683855505</v>
       </c>
       <c r="K9">
-        <v>1.344708142913873</v>
+        <v>2.275353075355525</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.102528086686831</v>
+        <v>1.916985714272045</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.329461333775271</v>
+        <v>2.434713801934265</v>
       </c>
       <c r="C10">
-        <v>0.2053436850826245</v>
+        <v>0.4241480279352459</v>
       </c>
       <c r="D10">
-        <v>0.05745622924126792</v>
+        <v>0.08350773695356395</v>
       </c>
       <c r="E10">
-        <v>0.1352203846029738</v>
+        <v>0.1770100501463503</v>
       </c>
       <c r="F10">
-        <v>3.416139065275388</v>
+        <v>3.059490996400967</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2456550031435825</v>
+        <v>0.3145488884306076</v>
       </c>
       <c r="K10">
-        <v>1.446149712523265</v>
+        <v>2.719325772127519</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3.098476087102242</v>
+        <v>1.924486019382329</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.371333998530304</v>
+        <v>2.618832992738646</v>
       </c>
       <c r="C11">
-        <v>0.2127601558477181</v>
+        <v>0.4573901285722002</v>
       </c>
       <c r="D11">
-        <v>0.05874516512757566</v>
+        <v>0.08986415097484723</v>
       </c>
       <c r="E11">
-        <v>0.1377768884714996</v>
+        <v>0.18975832988653</v>
       </c>
       <c r="F11">
-        <v>3.444012401755174</v>
+        <v>3.21190357222153</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2500172867448072</v>
+        <v>0.336096949976934</v>
       </c>
       <c r="K11">
-        <v>1.493133486145524</v>
+        <v>2.926762125733262</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3.097419738053688</v>
+        <v>1.931177413074451</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.387300156466154</v>
+        <v>2.689350534328753</v>
       </c>
       <c r="C12">
-        <v>0.2155864551942841</v>
+        <v>0.4701329050225809</v>
       </c>
       <c r="D12">
-        <v>0.05923831415145742</v>
+        <v>0.09228755329810667</v>
       </c>
       <c r="E12">
-        <v>0.1387561407712283</v>
+        <v>0.1946453990850259</v>
       </c>
       <c r="F12">
-        <v>3.454790530479556</v>
+        <v>3.270784863855425</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.251688966708997</v>
+        <v>0.3443782271003784</v>
       </c>
       <c r="K12">
-        <v>1.511046184117959</v>
+        <v>3.006224769922255</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3.097133297988066</v>
+        <v>1.934231134124786</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.383856664859763</v>
+        <v>2.674126096003477</v>
       </c>
       <c r="C13">
-        <v>0.2149769654074021</v>
+        <v>0.467381261448935</v>
       </c>
       <c r="D13">
-        <v>0.059131881136949</v>
+        <v>0.09176486290246544</v>
       </c>
       <c r="E13">
-        <v>0.1385447445302432</v>
+        <v>0.193590100654518</v>
       </c>
       <c r="F13">
-        <v>3.452459333764779</v>
+        <v>3.258049578828434</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2513280594321401</v>
+        <v>0.3425890378465368</v>
       </c>
       <c r="K13">
-        <v>1.507182975654075</v>
+        <v>2.989068417090181</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3.097189929922166</v>
+        <v>1.933549511159541</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.372645339287601</v>
+        <v>2.624617910327345</v>
       </c>
       <c r="C14">
-        <v>0.2129923188492171</v>
+        <v>0.4584352486833723</v>
       </c>
       <c r="D14">
-        <v>0.05878563557578786</v>
+        <v>0.09006318362312982</v>
       </c>
       <c r="E14">
-        <v>0.1378572283441244</v>
+        <v>0.1901591511818737</v>
       </c>
       <c r="F14">
-        <v>3.444894649531932</v>
+        <v>3.216723585238981</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2501544199584487</v>
+        <v>0.336775726078244</v>
       </c>
       <c r="K14">
-        <v>1.494604747223889</v>
+        <v>2.933280544333883</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3.097393893805787</v>
+        <v>1.931417929538199</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.365792401471083</v>
+        <v>2.59439971874491</v>
       </c>
       <c r="C15">
-        <v>0.2117789930781271</v>
+        <v>0.4529764018659819</v>
       </c>
       <c r="D15">
-        <v>0.05857420806258062</v>
+        <v>0.08902306006157801</v>
       </c>
       <c r="E15">
-        <v>0.1374375589100794</v>
+        <v>0.1880655954059947</v>
       </c>
       <c r="F15">
-        <v>3.440290137495765</v>
+        <v>3.191566282336368</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2494381102726919</v>
+        <v>0.333231214525739</v>
       </c>
       <c r="K15">
-        <v>1.48691598803353</v>
+        <v>2.89923143336523</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>3.097533631061509</v>
+        <v>1.930181501147771</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.326740211896038</v>
+        <v>2.422786400895973</v>
       </c>
       <c r="C16">
-        <v>0.204861491008046</v>
+        <v>0.4219959752832096</v>
       </c>
       <c r="D16">
-        <v>0.05737270314558174</v>
+        <v>0.08309448934600994</v>
       </c>
       <c r="E16">
-        <v>0.135054871342021</v>
+        <v>0.1761848206127326</v>
       </c>
       <c r="F16">
-        <v>3.414348658304931</v>
+        <v>3.049686031837012</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2453726802944232</v>
+        <v>0.3131567945376617</v>
       </c>
       <c r="K16">
-        <v>1.443096110118546</v>
+        <v>2.705889712763337</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3.098560992498633</v>
+        <v>1.924118710459425</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.302978251960553</v>
+        <v>2.31880584338262</v>
       </c>
       <c r="C17">
-        <v>0.2006494685102496</v>
+        <v>0.4032417870919289</v>
       </c>
       <c r="D17">
-        <v>0.05664465043907541</v>
+        <v>0.07948410978818288</v>
       </c>
       <c r="E17">
-        <v>0.133613019896579</v>
+        <v>0.1689940129126342</v>
       </c>
       <c r="F17">
-        <v>3.398831015317938</v>
+        <v>2.964576525018373</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2429137999594104</v>
+        <v>0.3010411627082021</v>
       </c>
       <c r="K17">
-        <v>1.416428911069204</v>
+        <v>2.588766147262447</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.099393091108695</v>
+        <v>1.921271942061594</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.289382642731937</v>
+        <v>2.259442464554525</v>
       </c>
       <c r="C18">
-        <v>0.1982384110322926</v>
+        <v>0.3925403233147335</v>
       </c>
       <c r="D18">
-        <v>0.05622922031599842</v>
+        <v>0.0774165659052386</v>
       </c>
       <c r="E18">
-        <v>0.1327909920585313</v>
+        <v>0.1648915333295875</v>
       </c>
       <c r="F18">
-        <v>3.390051206649815</v>
+        <v>2.916290872812397</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2415123978559421</v>
+        <v>0.2941409911811093</v>
       </c>
       <c r="K18">
-        <v>1.401169439868852</v>
+        <v>2.521906494798145</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.099945736105866</v>
+        <v>1.919940035155435</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.284791695547995</v>
+        <v>2.239416139718628</v>
       </c>
       <c r="C19">
-        <v>0.1974240544753627</v>
+        <v>0.3889310402265949</v>
       </c>
       <c r="D19">
-        <v>0.05608913486275924</v>
+        <v>0.07671801929505051</v>
       </c>
       <c r="E19">
-        <v>0.1325139183620152</v>
+        <v>0.1635080356572942</v>
       </c>
       <c r="F19">
-        <v>3.387103487831581</v>
+        <v>2.900052932896926</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.241040116737878</v>
+        <v>0.2918160214069161</v>
       </c>
       <c r="K19">
-        <v>1.396016362474057</v>
+        <v>2.499352434903898</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.100145556679706</v>
+        <v>1.91954016006575</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.305500335665215</v>
+        <v>2.329828113364272</v>
       </c>
       <c r="C20">
-        <v>0.2010966454101322</v>
+        <v>0.4052292079820461</v>
       </c>
       <c r="D20">
-        <v>0.05672180877655109</v>
+        <v>0.07986748819760692</v>
       </c>
       <c r="E20">
-        <v>0.1337657530927814</v>
+        <v>0.1697559686432371</v>
       </c>
       <c r="F20">
-        <v>3.400467828184929</v>
+        <v>2.973566618625625</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2431742181984617</v>
+        <v>0.3023237051930323</v>
       </c>
       <c r="K20">
-        <v>1.419259521004562</v>
+        <v>2.601180851094</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.09929684657331</v>
+        <v>1.921543037697049</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.375935391781582</v>
+        <v>2.639137156567244</v>
       </c>
       <c r="C21">
-        <v>0.2135747723570205</v>
+        <v>0.4610585226242847</v>
       </c>
       <c r="D21">
-        <v>0.05888719922645436</v>
+        <v>0.09056254425938448</v>
       </c>
       <c r="E21">
-        <v>0.1380588654390493</v>
+        <v>0.1911652221545097</v>
       </c>
       <c r="F21">
-        <v>3.44711052007986</v>
+        <v>3.228829248206495</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2504986088255379</v>
+        <v>0.338479807664001</v>
       </c>
       <c r="K21">
-        <v>1.498295990619937</v>
+        <v>2.949641008608978</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3.097330898880173</v>
+        <v>1.932029505627725</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.422609481292113</v>
+        <v>2.845984802318412</v>
       </c>
       <c r="C22">
-        <v>0.2218340132270384</v>
+        <v>0.4984601531555768</v>
       </c>
       <c r="D22">
-        <v>0.06033187264347362</v>
+        <v>0.09764903607106135</v>
       </c>
       <c r="E22">
-        <v>0.1409297223354784</v>
+        <v>0.2055088406041747</v>
       </c>
       <c r="F22">
-        <v>3.478894956549112</v>
+        <v>3.402527639274894</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2554008451648997</v>
+        <v>0.3628265581417196</v>
       </c>
       <c r="K22">
-        <v>1.550656211369471</v>
+        <v>3.182758296860356</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3.096708246632772</v>
+        <v>1.941939678297331</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.397639881090868</v>
+        <v>2.735117886534738</v>
       </c>
       <c r="C23">
-        <v>0.2174163356423264</v>
+        <v>0.478406616668849</v>
       </c>
       <c r="D23">
-        <v>0.05955813464312598</v>
+        <v>0.09385716825923396</v>
       </c>
       <c r="E23">
-        <v>0.1393915305878366</v>
+        <v>0.1978184648705934</v>
       </c>
       <c r="F23">
-        <v>3.461811750428012</v>
+        <v>3.30914478416787</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2527738468377692</v>
+        <v>0.3497610952209982</v>
       </c>
       <c r="K23">
-        <v>1.522645860179352</v>
+        <v>3.057802163633028</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>3.096979836233729</v>
+        <v>1.936353274499368</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.304359897761174</v>
+        <v>2.324843655973041</v>
       </c>
       <c r="C24">
-        <v>0.2008944440688936</v>
+        <v>0.4043304456695864</v>
       </c>
       <c r="D24">
-        <v>0.05668691571881368</v>
+        <v>0.07969413772453748</v>
       </c>
       <c r="E24">
-        <v>0.1336966808883773</v>
+        <v>0.1694113905614145</v>
       </c>
       <c r="F24">
-        <v>3.399727384403747</v>
+        <v>2.969500198356428</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2430564449922343</v>
+        <v>0.301743665586713</v>
       </c>
       <c r="K24">
-        <v>1.417979578471488</v>
+        <v>2.595566689305514</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.099340127430366</v>
+        <v>1.921419529746345</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.206479383211473</v>
+        <v>1.898913999744224</v>
       </c>
       <c r="C25">
-        <v>0.1835153039756392</v>
+        <v>0.3276259672067283</v>
       </c>
       <c r="D25">
-        <v>0.0537171053297314</v>
+        <v>0.06475568843890045</v>
       </c>
       <c r="E25">
-        <v>0.1278323382274955</v>
+        <v>0.1400257571230057</v>
       </c>
       <c r="F25">
-        <v>3.338320128606341</v>
+        <v>2.628224113962517</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2330667112360203</v>
+        <v>0.2525165721299345</v>
       </c>
       <c r="K25">
-        <v>1.308090071280191</v>
+        <v>2.115953545719066</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.104715246303087</v>
+        <v>1.916840030944655</v>
       </c>
       <c r="O25">
         <v>0</v>
